--- a/sudoku/Benchmarks.xlsx
+++ b/sudoku/Benchmarks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Universiteit\Semester 8\APLAI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Unief\APLAI\Git Project\APLAI\sudoku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DA304AF-96F4-4DA3-A586-4553477E7F29}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7E5B7AD-6840-447F-9E2D-CA5D0184EA35}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="4" xr2:uid="{4EEA1ADA-0D90-41F2-BA1B-48004A46E488}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="7" activeTab="9" xr2:uid="{4EEA1ADA-0D90-41F2-BA1B-48004A46E488}"/>
   </bookViews>
   <sheets>
     <sheet name="IOGlobal" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
     <sheet name="CHR_New" sheetId="11" r:id="rId11"/>
     <sheet name="CHR_Both" sheetId="12" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -123,6 +122,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="#,##0.000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -160,10 +162,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -3571,46 +3574,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>117.68900000000001</c:v>
+                  <c:v>9.9220000000000006</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27.968333333333334</c:v>
+                  <c:v>2.6406666666666667</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.0936666666666666</c:v>
+                  <c:v>1.0780000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11.296333333333331</c:v>
+                  <c:v>1.5523333333333333</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22.989000000000004</c:v>
+                  <c:v>2.5779999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>74.346666666666664</c:v>
+                  <c:v>7.5676666666666668</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>72.164333333333332</c:v>
+                  <c:v>8.0990000000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>122.05333333333333</c:v>
+                  <c:v>11.396000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>296.58833333333337</c:v>
+                  <c:v>28.145666666666667</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.3906666666666667</c:v>
+                  <c:v>0.70333333333333325</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>55.029333333333334</c:v>
+                  <c:v>5.7033333333333331</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>118.64700000000001</c:v>
+                  <c:v>11.317666666666668</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>74.284000000000006</c:v>
+                  <c:v>8.0366666666666671</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>36.06133333333333</c:v>
+                  <c:v>3.3126666666666669</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3694,46 +3697,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>1685.443</c:v>
+                  <c:v>0.48966666666666664</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.53633333333333333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>92.058999999999997</c:v>
+                  <c:v>0.505</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.9529999999999998</c:v>
+                  <c:v>1.9793333333333336</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>432.61</c:v>
+                  <c:v>1.7916666666666667</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>166.35400000000001</c:v>
+                  <c:v>0.45833333333333331</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>2.3126666666666669</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.52100000000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.53133333333333344</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>148.245</c:v>
+                  <c:v>10.432</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>0.73433333333333328</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>0.55766666666666664</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1481.1010000000001</c:v>
+                  <c:v>0.42133333333333334</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>209.24299999999999</c:v>
+                  <c:v>0.8696666666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3817,46 +3820,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>196.39933333333332</c:v>
+                  <c:v>10.352333333333334</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43.227666666666664</c:v>
+                  <c:v>3.0626666666666669</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.843333333333334</c:v>
+                  <c:v>1.2969999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18.817333333333334</c:v>
+                  <c:v>1.6719999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>36.961999999999996</c:v>
+                  <c:v>2.5363333333333333</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>118.85166666666667</c:v>
+                  <c:v>6.8959999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>120.267</c:v>
+                  <c:v>7.5303333333333322</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>195.49333333333334</c:v>
+                  <c:v>10.151333333333334</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>484.041</c:v>
+                  <c:v>24.640666666666664</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.3280000000000003</c:v>
+                  <c:v>0.94299999999999995</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>88.64800000000001</c:v>
+                  <c:v>5.2603333333333326</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>183.21766666666667</c:v>
+                  <c:v>9.9846666666666675</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>120.22533333333332</c:v>
+                  <c:v>7.6196666666666664</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>63.524000000000001</c:v>
+                  <c:v>3.7029999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4340,49 +4343,49 @@
             <c:numRef>
               <c:f>CHR_Classic!$F$2:$F$15</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>951909636</c:v>
+                  <c:v>77497072</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>219401287</c:v>
+                  <c:v>19688716</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>55968026</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="#,##0">
-                  <c:v>89804687</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="#,##0">
-                  <c:v>185983068</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="#,##0">
-                  <c:v>601439956</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="#,##0">
-                  <c:v>585693705</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="#,##0">
-                  <c:v>951909631</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="#,##0">
-                  <c:v>2390048510</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="#,##0">
-                  <c:v>18201825</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="#,##0">
-                  <c:v>441908843</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="#,##0">
-                  <c:v>932278773</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="#,##0">
-                  <c:v>596205502</c:v>
-                </c:pt>
-                <c:pt idx="13" formatCode="#,##0">
-                  <c:v>292096875</c:v>
+                  <c:v>9223416</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14296191</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25584971</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>78875129</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>82495849</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>118499691</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>302845877</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4706694</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>58491747</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>118108562</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>83464818</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>26313898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4463,31 +4466,49 @@
             <c:numRef>
               <c:f>CHR_New!$F$2:$F$15</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="14"/>
-                <c:pt idx="0" formatCode="#,##0">
-                  <c:v>13210174211</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="#,##0">
-                  <c:v>728673522</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="#,##0">
-                  <c:v>30211084</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="#,##0">
-                  <c:v>3435991885</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="#,##0">
-                  <c:v>1280248534</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="#,##0">
-                  <c:v>1137887589</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="#,##0">
-                  <c:v>11052838146</c:v>
-                </c:pt>
-                <c:pt idx="13" formatCode="#,##0">
-                  <c:v>1616165240</c:v>
+                <c:pt idx="0">
+                  <c:v>2480101</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2495013</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2558857</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16913563</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15252365</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2514390</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19487520</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2480101</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2618827</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>99931403</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4633754</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2581245</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2188590</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6546132</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4571,46 +4592,46 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>1609591558</c:v>
+                  <c:v>83962721</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>351973747</c:v>
+                  <c:v>21917673</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>92340460</c:v>
+                  <c:v>7094581</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>148789340</c:v>
+                  <c:v>10575208</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>302128115</c:v>
+                  <c:v>18791459</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>964447287</c:v>
+                  <c:v>56178110</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>970717911</c:v>
+                  <c:v>59317466</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1609591956</c:v>
+                  <c:v>83962721</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3979902894</c:v>
+                  <c:v>212577280</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>30016108</c:v>
+                  <c:v>3989545</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>728346627</c:v>
+                  <c:v>41297622</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1522669463</c:v>
+                  <c:v>83615377</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>987779799</c:v>
+                  <c:v>60546505</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>483028805</c:v>
+                  <c:v>28606253</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4825,7 +4846,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -9062,8 +9083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE63E4D5-603C-4D1F-9F47-80261D74981C}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9099,20 +9120,20 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>117.387</v>
+        <v>9.9060000000000006</v>
       </c>
       <c r="C2">
-        <v>118.512</v>
+        <v>9.9380000000000006</v>
       </c>
       <c r="D2">
-        <v>117.16800000000001</v>
+        <v>9.9220000000000006</v>
       </c>
       <c r="E2">
         <f>AVERAGE(B2:D2)</f>
-        <v>117.68900000000001</v>
-      </c>
-      <c r="F2">
-        <v>951909636</v>
+        <v>9.9220000000000006</v>
+      </c>
+      <c r="F2" s="2">
+        <v>77497072</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -9120,20 +9141,20 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>28.093</v>
+        <v>2.609</v>
       </c>
       <c r="C3">
-        <v>27.748999999999999</v>
+        <v>2.6720000000000002</v>
       </c>
       <c r="D3">
-        <v>28.062999999999999</v>
+        <v>2.641</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E15" si="0">AVERAGE(B3:D3)</f>
-        <v>27.968333333333334</v>
-      </c>
-      <c r="F3">
-        <v>219401287</v>
+        <v>2.6406666666666667</v>
+      </c>
+      <c r="F3" s="2">
+        <v>19688716</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -9141,20 +9162,20 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>7.0469999999999997</v>
+        <v>1.0780000000000001</v>
       </c>
       <c r="C4">
-        <v>7.109</v>
+        <v>1.0780000000000001</v>
       </c>
       <c r="D4">
-        <v>7.125</v>
+        <v>1.0780000000000001</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>7.0936666666666666</v>
-      </c>
-      <c r="F4">
-        <v>55968026</v>
+        <v>1.0780000000000001</v>
+      </c>
+      <c r="F4" s="2">
+        <v>9223416</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -9162,20 +9183,20 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>11.311999999999999</v>
+        <v>1.5469999999999999</v>
       </c>
       <c r="C5">
-        <v>11.281000000000001</v>
+        <v>1.5469999999999999</v>
       </c>
       <c r="D5">
-        <v>11.295999999999999</v>
+        <v>1.5629999999999999</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>11.296333333333331</v>
+        <v>1.5523333333333333</v>
       </c>
       <c r="F5" s="2">
-        <v>89804687</v>
+        <v>14296191</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -9183,20 +9204,20 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>23.295999999999999</v>
+        <v>2.5310000000000001</v>
       </c>
       <c r="C6">
-        <v>22.937000000000001</v>
+        <v>2.5939999999999999</v>
       </c>
       <c r="D6">
-        <v>22.734000000000002</v>
+        <v>2.609</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>22.989000000000004</v>
+        <v>2.5779999999999998</v>
       </c>
       <c r="F6" s="2">
-        <v>185983068</v>
+        <v>25584971</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -9204,20 +9225,20 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>74.248000000000005</v>
+        <v>7.5309999999999997</v>
       </c>
       <c r="C7">
-        <v>74.06</v>
+        <v>7.5940000000000003</v>
       </c>
       <c r="D7">
-        <v>74.731999999999999</v>
+        <v>7.5780000000000003</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>74.346666666666664</v>
+        <v>7.5676666666666668</v>
       </c>
       <c r="F7" s="2">
-        <v>601439956</v>
+        <v>78875129</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -9225,20 +9246,20 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>72.123000000000005</v>
+        <v>8.109</v>
       </c>
       <c r="C8">
-        <v>72.153999999999996</v>
+        <v>8.0630000000000006</v>
       </c>
       <c r="D8">
-        <v>72.215999999999994</v>
+        <v>8.125</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>72.164333333333332</v>
+        <v>8.0990000000000002</v>
       </c>
       <c r="F8" s="2">
-        <v>585693705</v>
+        <v>82495849</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -9246,20 +9267,20 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>121.496</v>
+        <v>11.391</v>
       </c>
       <c r="C9">
-        <v>128.10499999999999</v>
+        <v>11.406000000000001</v>
       </c>
       <c r="D9">
-        <v>116.559</v>
+        <v>11.391</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>122.05333333333333</v>
+        <v>11.396000000000001</v>
       </c>
       <c r="F9" s="2">
-        <v>951909631</v>
+        <v>118499691</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -9267,20 +9288,20 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>304.113</v>
+        <v>28.109000000000002</v>
       </c>
       <c r="C10">
-        <v>292.94299999999998</v>
+        <v>28.155999999999999</v>
       </c>
       <c r="D10">
-        <v>292.709</v>
+        <v>28.172000000000001</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>296.58833333333337</v>
+        <v>28.145666666666667</v>
       </c>
       <c r="F10" s="2">
-        <v>2390048510</v>
+        <v>302845877</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -9288,20 +9309,20 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>2.375</v>
+        <v>0.68799999999999994</v>
       </c>
       <c r="C11">
-        <v>2.375</v>
+        <v>0.73399999999999999</v>
       </c>
       <c r="D11">
-        <v>2.4220000000000002</v>
+        <v>0.68799999999999994</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>2.3906666666666667</v>
+        <v>0.70333333333333325</v>
       </c>
       <c r="F11" s="2">
-        <v>18201825</v>
+        <v>4706694</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -9309,20 +9330,20 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>54.514000000000003</v>
+        <v>5.7190000000000003</v>
       </c>
       <c r="C12">
-        <v>54.795000000000002</v>
+        <v>5.7190000000000003</v>
       </c>
       <c r="D12">
-        <v>55.779000000000003</v>
+        <v>5.6719999999999997</v>
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>55.029333333333334</v>
+        <v>5.7033333333333331</v>
       </c>
       <c r="F12" s="2">
-        <v>441908843</v>
+        <v>58491747</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -9330,20 +9351,20 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>127.23</v>
+        <v>11.327999999999999</v>
       </c>
       <c r="C13">
-        <v>114.512</v>
+        <v>11.327999999999999</v>
       </c>
       <c r="D13">
-        <v>114.199</v>
+        <v>11.297000000000001</v>
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>118.64700000000001</v>
+        <v>11.317666666666668</v>
       </c>
       <c r="F13" s="2">
-        <v>932278773</v>
+        <v>118108562</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -9351,20 +9372,20 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>75.465999999999994</v>
+        <v>8</v>
       </c>
       <c r="C14">
-        <v>73.56</v>
+        <v>8.0470000000000006</v>
       </c>
       <c r="D14">
-        <v>73.825999999999993</v>
+        <v>8.0630000000000006</v>
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>74.284000000000006</v>
+        <v>8.0366666666666671</v>
       </c>
       <c r="F14" s="2">
-        <v>596205502</v>
+        <v>83464818</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -9372,20 +9393,20 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>36.311</v>
+        <v>3.3130000000000002</v>
       </c>
       <c r="C15">
-        <v>35.874000000000002</v>
+        <v>3.2970000000000002</v>
       </c>
       <c r="D15">
-        <v>35.999000000000002</v>
+        <v>3.3279999999999998</v>
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>36.06133333333333</v>
+        <v>3.3126666666666669</v>
       </c>
       <c r="F15" s="2">
-        <v>292096875</v>
+        <v>26313898</v>
       </c>
     </row>
   </sheetData>
@@ -9398,7 +9419,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="A1:F15"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9433,23 +9454,41 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1685.443</v>
+        <v>0.48399999999999999</v>
+      </c>
+      <c r="C2">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="D2">
+        <v>0.46899999999999997</v>
       </c>
       <c r="E2">
         <f>AVERAGE(B2:D2)</f>
-        <v>1685.443</v>
+        <v>0.48966666666666664</v>
       </c>
       <c r="F2" s="2">
-        <v>13210174211</v>
+        <v>2480101</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" t="e">
+      <c r="B3">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="C3">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="E3">
         <f t="shared" ref="E3:E15" si="0">AVERAGE(B3:D3)</f>
-        <v>#DIV/0!</v>
+        <v>0.53633333333333333</v>
+      </c>
+      <c r="F3" s="2">
+        <v>2495013</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -9457,14 +9496,20 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>92.058999999999997</v>
+        <v>0.5</v>
+      </c>
+      <c r="C4">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="D4">
+        <v>0.48399999999999999</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>92.058999999999997</v>
+        <v>0.505</v>
       </c>
       <c r="F4" s="2">
-        <v>728673522</v>
+        <v>2558857</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -9472,14 +9517,20 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>3.9529999999999998</v>
+        <v>1.9530000000000001</v>
+      </c>
+      <c r="C5">
+        <v>1.9690000000000001</v>
+      </c>
+      <c r="D5">
+        <v>2.016</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>3.9529999999999998</v>
+        <v>1.9793333333333336</v>
       </c>
       <c r="F5" s="2">
-        <v>30211084</v>
+        <v>16913563</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -9487,14 +9538,20 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>432.61</v>
+        <v>1.75</v>
+      </c>
+      <c r="C6">
+        <v>1.7969999999999999</v>
+      </c>
+      <c r="D6">
+        <v>1.8280000000000001</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>432.61</v>
+        <v>1.7916666666666667</v>
       </c>
       <c r="F6" s="2">
-        <v>3435991885</v>
+        <v>15252365</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -9502,94 +9559,167 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>166.35400000000001</v>
+        <v>0.45300000000000001</v>
+      </c>
+      <c r="C7">
+        <v>0.45300000000000001</v>
+      </c>
+      <c r="D7">
+        <v>0.46899999999999997</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>166.35400000000001</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="F7" s="2">
-        <v>1280248534</v>
+        <v>2514390</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="E8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F8" s="2"/>
+      <c r="B8" s="3">
+        <v>2.2970000000000002</v>
+      </c>
+      <c r="C8">
+        <v>2.3279999999999998</v>
+      </c>
+      <c r="D8">
+        <v>2.3130000000000002</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>2.3126666666666669</v>
+      </c>
+      <c r="F8" s="2">
+        <v>19487520</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
-      <c r="E9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F9" s="2"/>
+      <c r="B9">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="C9">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="D9">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="F9" s="2">
+        <v>2480101</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="E10" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F10" s="2"/>
+      <c r="B10">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="C10">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="D10">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>0.53133333333333344</v>
+      </c>
+      <c r="F10" s="2">
+        <v>2618827</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
       <c r="B11">
-        <v>148.245</v>
+        <v>10.406000000000001</v>
+      </c>
+      <c r="C11">
+        <v>10.436999999999999</v>
+      </c>
+      <c r="D11">
+        <v>10.452999999999999</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>148.245</v>
+        <v>10.432</v>
       </c>
       <c r="F11" s="2">
-        <v>1137887589</v>
+        <v>99931403</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="E12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F12" s="2"/>
+      <c r="B12">
+        <v>0.70299999999999996</v>
+      </c>
+      <c r="C12">
+        <v>0.75</v>
+      </c>
+      <c r="D12">
+        <v>0.75</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>0.73433333333333328</v>
+      </c>
+      <c r="F12" s="2">
+        <v>4633754</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="E13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F13" s="2"/>
+      <c r="B13">
+        <v>0.56299999999999994</v>
+      </c>
+      <c r="C13">
+        <v>0.56299999999999994</v>
+      </c>
+      <c r="D13">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>0.55766666666666664</v>
+      </c>
+      <c r="F13" s="2">
+        <v>2581245</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
       <c r="B14">
-        <v>1481.1010000000001</v>
+        <v>0.42</v>
+      </c>
+      <c r="C14">
+        <v>0.40600000000000003</v>
+      </c>
+      <c r="D14">
+        <v>0.438</v>
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>1481.1010000000001</v>
+        <v>0.42133333333333334</v>
       </c>
       <c r="F14" s="2">
-        <v>11052838146</v>
+        <v>2188590</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -9597,14 +9727,20 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>209.24299999999999</v>
+        <v>0.875</v>
+      </c>
+      <c r="C15">
+        <v>0.85899999999999999</v>
+      </c>
+      <c r="D15">
+        <v>0.875</v>
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>209.24299999999999</v>
+        <v>0.8696666666666667</v>
       </c>
       <c r="F15" s="2">
-        <v>1616165240</v>
+        <v>6546132</v>
       </c>
     </row>
   </sheetData>
@@ -9617,7 +9753,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9650,20 +9786,20 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>193.49299999999999</v>
+        <v>10.231999999999999</v>
       </c>
       <c r="C2">
-        <v>201.99299999999999</v>
+        <v>10.609</v>
       </c>
       <c r="D2">
-        <v>193.71199999999999</v>
+        <v>10.215999999999999</v>
       </c>
       <c r="E2">
         <f>AVERAGE(B2:D2)</f>
-        <v>196.39933333333332</v>
+        <v>10.352333333333334</v>
       </c>
       <c r="F2" s="2">
-        <v>1609591558</v>
+        <v>83962721</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -9671,20 +9807,20 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>43.311</v>
+        <v>3.0939999999999999</v>
       </c>
       <c r="C3">
-        <v>42.764000000000003</v>
+        <v>3.0630000000000002</v>
       </c>
       <c r="D3">
-        <v>43.607999999999997</v>
+        <v>3.0310000000000001</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E15" si="0">AVERAGE(B3:D3)</f>
-        <v>43.227666666666664</v>
+        <v>3.0626666666666669</v>
       </c>
       <c r="F3" s="2">
-        <v>351973747</v>
+        <v>21917673</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -9692,20 +9828,20 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>11.781000000000001</v>
+        <v>1.2969999999999999</v>
       </c>
       <c r="C4">
-        <v>11.843</v>
+        <v>1.2969999999999999</v>
       </c>
       <c r="D4">
-        <v>11.906000000000001</v>
+        <v>1.2969999999999999</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>11.843333333333334</v>
+        <v>1.2969999999999999</v>
       </c>
       <c r="F4" s="2">
-        <v>92340460</v>
+        <v>7094581</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -9713,20 +9849,20 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>18.577999999999999</v>
+        <v>1.6719999999999999</v>
       </c>
       <c r="C5">
-        <v>18.859000000000002</v>
+        <v>1.6719999999999999</v>
       </c>
       <c r="D5">
-        <v>19.015000000000001</v>
+        <v>1.6719999999999999</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>18.817333333333334</v>
+        <v>1.6719999999999999</v>
       </c>
       <c r="F5" s="2">
-        <v>148789340</v>
+        <v>10575208</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -9734,20 +9870,20 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>36.732999999999997</v>
+        <v>2.5939999999999999</v>
       </c>
       <c r="C6">
-        <v>37.389000000000003</v>
+        <v>2.4529999999999998</v>
       </c>
       <c r="D6">
-        <v>36.764000000000003</v>
+        <v>2.5619999999999998</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>36.961999999999996</v>
+        <v>2.5363333333333333</v>
       </c>
       <c r="F6" s="2">
-        <v>302128115</v>
+        <v>18791459</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -9755,20 +9891,20 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>116.09</v>
+        <v>6.859</v>
       </c>
       <c r="C7">
-        <v>116</v>
+        <v>6.891</v>
       </c>
       <c r="D7">
-        <v>124.465</v>
+        <v>6.9379999999999997</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>118.85166666666667</v>
+        <v>6.8959999999999999</v>
       </c>
       <c r="F7" s="2">
-        <v>964447287</v>
+        <v>56178110</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -9776,20 +9912,20 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>124.777</v>
+        <v>7.5</v>
       </c>
       <c r="C8">
-        <v>118.387</v>
+        <v>7.5309999999999997</v>
       </c>
       <c r="D8">
-        <v>117.637</v>
+        <v>7.56</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>120.267</v>
+        <v>7.5303333333333322</v>
       </c>
       <c r="F8" s="2">
-        <v>970717911</v>
+        <v>59317466</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -9797,20 +9933,20 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>193.66499999999999</v>
+        <v>10.141</v>
       </c>
       <c r="C9">
-        <v>195.54</v>
+        <v>10.141</v>
       </c>
       <c r="D9">
-        <v>197.27500000000001</v>
+        <v>10.172000000000001</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>195.49333333333334</v>
+        <v>10.151333333333334</v>
       </c>
       <c r="F9" s="2">
-        <v>1609591956</v>
+        <v>83962721</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -9818,20 +9954,20 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>495.29599999999999</v>
+        <v>24.547000000000001</v>
       </c>
       <c r="C10">
-        <v>476.57799999999997</v>
+        <v>24.687000000000001</v>
       </c>
       <c r="D10">
-        <v>480.24900000000002</v>
+        <v>24.687999999999999</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>484.041</v>
+        <v>24.640666666666664</v>
       </c>
       <c r="F10" s="2">
-        <v>3979902894</v>
+        <v>212577280</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -9839,20 +9975,20 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>4.375</v>
+        <v>0.95299999999999996</v>
       </c>
       <c r="C11">
-        <v>4.25</v>
+        <v>0.93799999999999994</v>
       </c>
       <c r="D11">
-        <v>4.359</v>
+        <v>0.93799999999999994</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>4.3280000000000003</v>
+        <v>0.94299999999999995</v>
       </c>
       <c r="F11" s="2">
-        <v>30016108</v>
+        <v>3989545</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -9860,20 +9996,20 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>87.965999999999994</v>
+        <v>5.234</v>
       </c>
       <c r="C12">
-        <v>88.403000000000006</v>
+        <v>5.25</v>
       </c>
       <c r="D12">
-        <v>89.575000000000003</v>
+        <v>5.2969999999999997</v>
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>88.64800000000001</v>
+        <v>5.2603333333333326</v>
       </c>
       <c r="F12" s="2">
-        <v>728346627</v>
+        <v>41297622</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -9881,20 +10017,20 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>183.791</v>
+        <v>10.016</v>
       </c>
       <c r="C13">
-        <v>182.88399999999999</v>
+        <v>9.9689999999999994</v>
       </c>
       <c r="D13">
-        <v>182.97800000000001</v>
+        <v>9.9689999999999994</v>
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>183.21766666666667</v>
+        <v>9.9846666666666675</v>
       </c>
       <c r="F13" s="2">
-        <v>1522669463</v>
+        <v>83615377</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -9902,20 +10038,20 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>119.215</v>
+        <v>7.859</v>
       </c>
       <c r="C14">
-        <v>120.949</v>
+        <v>7.4690000000000003</v>
       </c>
       <c r="D14">
-        <v>120.512</v>
+        <v>7.5309999999999997</v>
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>120.22533333333332</v>
+        <v>7.6196666666666664</v>
       </c>
       <c r="F14" s="2">
-        <v>987779799</v>
+        <v>60546505</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -9923,20 +10059,20 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>60.466999999999999</v>
+        <v>3.7029999999999998</v>
       </c>
       <c r="C15">
-        <v>61.06</v>
+        <v>3.7189999999999999</v>
       </c>
       <c r="D15">
-        <v>69.045000000000002</v>
+        <v>3.6869999999999998</v>
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>63.524000000000001</v>
+        <v>3.7029999999999998</v>
       </c>
       <c r="F15" s="2">
-        <v>483028805</v>
+        <v>28606253</v>
       </c>
     </row>
   </sheetData>
@@ -10948,7 +11084,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{802995EE-F77C-453E-B7D8-A767D82682F8}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+    <sheetView topLeftCell="A27" workbookViewId="0">
       <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>

--- a/sudoku/Benchmarks.xlsx
+++ b/sudoku/Benchmarks.xlsx
@@ -8,23 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Unief\APLAI\Git Project\APLAI\sudoku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7E5B7AD-6840-447F-9E2D-CA5D0184EA35}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{799AA77B-62FE-4D50-A84F-01BD650AA143}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="7" activeTab="9" xr2:uid="{4EEA1ADA-0D90-41F2-BA1B-48004A46E488}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="16320" windowHeight="12285" firstSheet="5" activeTab="15" xr2:uid="{4EEA1ADA-0D90-41F2-BA1B-48004A46E488}"/>
   </bookViews>
   <sheets>
-    <sheet name="IOGlobal" sheetId="1" r:id="rId1"/>
-    <sheet name="FFGlobal" sheetId="2" r:id="rId2"/>
-    <sheet name="IO" sheetId="3" r:id="rId3"/>
-    <sheet name="FF" sheetId="4" r:id="rId4"/>
-    <sheet name="Grafieken" sheetId="5" r:id="rId5"/>
+    <sheet name="IO" sheetId="3" r:id="rId1"/>
+    <sheet name="IOGlobal" sheetId="1" r:id="rId2"/>
+    <sheet name="FF" sheetId="4" r:id="rId3"/>
+    <sheet name="FFGlobal" sheetId="2" r:id="rId4"/>
+    <sheet name="AltIO" sheetId="8" r:id="rId5"/>
     <sheet name="AltIOGlobal" sheetId="6" r:id="rId6"/>
-    <sheet name="AltFFGlobal" sheetId="7" r:id="rId7"/>
-    <sheet name="AltIO" sheetId="8" r:id="rId8"/>
-    <sheet name="AltFF" sheetId="9" r:id="rId9"/>
-    <sheet name="CHR_Classic" sheetId="10" r:id="rId10"/>
-    <sheet name="CHR_New" sheetId="11" r:id="rId11"/>
-    <sheet name="CHR_Both" sheetId="12" r:id="rId12"/>
+    <sheet name="AltFF" sheetId="9" r:id="rId7"/>
+    <sheet name="AltFFGlobal" sheetId="7" r:id="rId8"/>
+    <sheet name="BothFF" sheetId="13" r:id="rId9"/>
+    <sheet name="BothFFGlobal" sheetId="14" r:id="rId10"/>
+    <sheet name="BothIOGlobal" sheetId="15" r:id="rId11"/>
+    <sheet name="BothIO" sheetId="16" r:id="rId12"/>
+    <sheet name="CHR_Classic" sheetId="10" r:id="rId13"/>
+    <sheet name="CHR_New" sheetId="11" r:id="rId14"/>
+    <sheet name="CHR_Both" sheetId="12" r:id="rId15"/>
+    <sheet name="Grafieken" sheetId="5" r:id="rId16"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -41,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="25">
   <si>
     <t>lambda</t>
   </si>
@@ -123,7 +127,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="#,##0.000"/>
+    <numFmt numFmtId="164" formatCode="#,##0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -166,7 +170,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -219,7 +223,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="nl-BE"/>
-              <a:t>Runtimes of puzzles</a:t>
+              <a:t>Runtimes: classic</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -336,43 +340,43 @@
                   <c:v>15.333333333333334</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14</c:v>
+                  <c:v>15.666666666666666</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>318.66666666666669</c:v>
+                  <c:v>161.66666666666666</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>506</c:v>
+                  <c:v>244.66666666666666</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1015.6666666666666</c:v>
+                  <c:v>484.33333333333331</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>330.66666666666669</c:v>
+                  <c:v>166.66666666666666</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.666666666666666</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17</c:v>
+                  <c:v>15.666666666666666</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18.666666666666668</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>37</c:v>
+                  <c:v>15.666666666666666</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>355.66666666666669</c:v>
+                  <c:v>182.33333333333334</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11</c:v>
+                  <c:v>5.333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1445.3333333333333</c:v>
+                  <c:v>744.66666666666663</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>265.66666666666669</c:v>
+                  <c:v>140.66666666666666</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -456,46 +460,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>16.333333333333332</c:v>
+                  <c:v>5.333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.333333333333334</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>164</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>213</c:v>
+                  <c:v>109.66666666666667</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>416</c:v>
+                  <c:v>219</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>47.333333333333336</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16</c:v>
+                  <c:v>10.666666666666666</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17.333333333333332</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>105</c:v>
+                  <c:v>52.333333333333336</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>58.333333333333336</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>736.66666666666663</c:v>
+                  <c:v>390.66666666666669</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>273</c:v>
+                  <c:v>135</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -579,46 +583,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>325.66666666666669</c:v>
+                  <c:v>234.33333333333334</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>67.333333333333329</c:v>
+                  <c:v>46.666666666666664</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16</c:v>
+                  <c:v>15.666666666666666</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23</c:v>
+                  <c:v>15.666666666666666</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>51.666666666666664</c:v>
+                  <c:v>36.333333333333336</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>172</c:v>
+                  <c:v>119.66666666666667</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>184.66666666666666</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>326.33333333333331</c:v>
+                  <c:v>229</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>965.66666666666663</c:v>
+                  <c:v>671.66666666666663</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4</c:v>
+                  <c:v>5.333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>133</c:v>
+                  <c:v>98.666666666666671</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>335.33333333333331</c:v>
+                  <c:v>218.66666666666666</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>209.33333333333334</c:v>
+                  <c:v>151</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>109</c:v>
+                  <c:v>78.333333333333329</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -702,46 +706,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>86.666666666666671</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44</c:v>
+                  <c:v>31.333333333333332</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14</c:v>
+                  <c:v>5.333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20</c:v>
+                  <c:v>15.666666666666666</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>47.666666666666664</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11</c:v>
+                  <c:v>10.666666666666666</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>568</c:v>
+                  <c:v>354</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>92</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>178.66666666666666</c:v>
+                  <c:v>119.66666666666667</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>38.333333333333336</c:v>
+                  <c:v>26.333333333333332</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>48.333333333333336</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>24.666666666666668</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>224.66666666666666</c:v>
+                  <c:v>151</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>73.666666666666671</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -875,6 +879,7 @@
         <c:axId val="379981376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1400"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1100,7 +1105,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="nl-BE"/>
-              <a:t>Number of backtracks of puzzles (log scale)</a:t>
+              <a:t>Backtracks: classic (log scale)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1837,7 +1842,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="nl-BE"/>
-              <a:t>Runtimes of puzzles (log scale)</a:t>
+              <a:t>Runtimes:</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="nl-BE" baseline="0"/>
+              <a:t> alternative</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1951,46 +1960,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>13.333333333333334</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15</c:v>
+                  <c:v>15.666666666666666</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>96.666666666666671</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>899.66666666666663</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>995.66666666666663</c:v>
+                  <c:v>531.33333333333337</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>222</c:v>
+                  <c:v>119.66666666666667</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14</c:v>
+                  <c:v>15.666666666666666</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12.333333333333334</c:v>
+                  <c:v>10.666666666666666</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>251.33333333333334</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>171.33333333333334</c:v>
+                  <c:v>93.666666666666671</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.333333333333334</c:v>
+                  <c:v>15.666666666666666</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2567.6666666666665</c:v>
+                  <c:v>1390.6666666666667</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>682</c:v>
+                  <c:v>359.66666666666669</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2074,46 +2083,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>13</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.333333333333334</c:v>
+                  <c:v>10.333333333333334</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>282</c:v>
+                  <c:v>156.33333333333334</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>58</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>390.33333333333331</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.333333333333334</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>36.333333333333336</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>714.33333333333337</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>24.666666666666668</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>13.666666666666666</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>66</c:v>
-                </c:pt>
                 <c:pt idx="10">
-                  <c:v>19.333333333333332</c:v>
+                  <c:v>15.666666666666666</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.333333333333334</c:v>
+                  <c:v>5.333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>455.66666666666669</c:v>
+                  <c:v>255</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>559</c:v>
+                  <c:v>307.33333333333331</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2197,46 +2206,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>10.333333333333334</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.333333333333333</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11</c:v>
+                  <c:v>5.333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7</c:v>
+                  <c:v>10.333333333333334</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>187</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>169.33333333333334</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>140.66666666666666</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>21.666666666666668</c:v>
+                  <c:v>10.333333333333334</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>28</c:v>
+                  <c:v>10.333333333333334</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>59.666666666666664</c:v>
+                  <c:v>36.333333333333336</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>160.66666666666666</c:v>
+                  <c:v>114.66666666666667</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3</c:v>
+                  <c:v>5.333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>488</c:v>
+                  <c:v>323</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>191.66666666666666</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2320,46 +2329,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>7</c:v>
+                  <c:v>5.333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>39</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12</c:v>
+                  <c:v>10.333333333333334</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9</c:v>
+                  <c:v>10.666666666666666</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>142.33333333333334</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4</c:v>
+                  <c:v>5.333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.666666666666667</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7</c:v>
+                  <c:v>5.333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>15.666666666666666</c:v>
+                  <c:v>10.333333333333334</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>56</c:v>
+                  <c:v>36.666666666666664</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>34</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>74.333333333333329</c:v>
+                  <c:v>46.666666666666664</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>115</c:v>
+                  <c:v>78.333333333333329</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2492,8 +2501,8 @@
       <c:valAx>
         <c:axId val="379981376"/>
         <c:scaling>
-          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
+          <c:max val="1400"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2719,7 +2728,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="nl-BE"/>
-              <a:t>Number of backtracks of puzzles (log scale)</a:t>
+              <a:t>Backtracks:alternative (log scale)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3226,6 +3235,7 @@
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
+          <c:max val="100000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4764,7 +4774,6 @@
       <c:valAx>
         <c:axId val="524510152"/>
         <c:scaling>
-          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -4878,6 +4887,1640 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="524509824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.24587389380078201"/>
+          <c:y val="0.14856481481481484"/>
+          <c:w val="0.49785564859978643"/>
+          <c:h val="7.8125546806649168E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-BE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-BE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nl-BE"/>
+              <a:t>Runtimes of puzzles:</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="nl-BE" baseline="0"/>
+              <a:t> channel</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-BE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>IOGlobal</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>FF!$A$2:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>lambda</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>hard17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>eastermonster</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>tarek_052</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>goldennugget</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>coloin</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>extra2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>extra3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>extra4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>inkara2012</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>clue18</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>clue17</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>sudowiki_nb28</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>sudowiki_nb49</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>BothIOGlobal!$E$2:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>10.333333333333334</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>192.66666666666666</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>515.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>218.66666666666666</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.333333333333334</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.333333333333334</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>67.666666666666671</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10.333333333333334</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>906.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>109.66666666666667</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3EBA-479E-BCBF-9675EBA1EB00}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>FFGlobal</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>FF!$A$2:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>lambda</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>hard17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>eastermonster</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>tarek_052</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>goldennugget</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>coloin</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>extra2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>extra3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>extra4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>inkara2012</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>clue18</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>clue17</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>sudowiki_nb28</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>sudowiki_nb49</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>BothFFGlobal!$E$2:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>5.333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.333333333333334</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>93.666666666666671</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>114.66666666666667</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>218.66666666666666</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.333333333333334</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>46.333333333333336</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>390.33333333333331</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>78</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3EBA-479E-BCBF-9675EBA1EB00}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>IO</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>FF!$A$2:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>lambda</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>hard17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>eastermonster</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>tarek_052</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>goldennugget</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>coloin</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>extra2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>extra3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>extra4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>inkara2012</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>clue18</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>clue17</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>sudowiki_nb28</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>sudowiki_nb49</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>BothIO!$E$2:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>15.333333333333334</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31.333333333333332</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>93.666666666666671</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>57.333333333333336</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>83.333333333333329</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>187.66666666666666</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>73</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3EBA-479E-BCBF-9675EBA1EB00}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>FF</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>FF!$A$2:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>lambda</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>hard17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>eastermonster</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>tarek_052</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>goldennugget</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>coloin</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>extra2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>extra3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>extra4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>inkara2012</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>clue18</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>clue17</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>sudowiki_nb28</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>sudowiki_nb49</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>BothFF!$E$2:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>10.333333333333334</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.333333333333334</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31.333333333333332</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20.666666666666668</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15.666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10.333333333333334</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>83.333333333333329</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>36.666666666666664</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-3EBA-479E-BCBF-9675EBA1EB00}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="379981048"/>
+        <c:axId val="379981376"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="379981048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-BE"/>
+                  <a:t>Puzzle</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-BE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-BE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="379981376"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="379981376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1400"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-BE"/>
+                  <a:t>Runtime [ms]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-BE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-BE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="379981048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-BE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-BE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nl-BE"/>
+              <a:t>Backtracks: channel</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-BE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>IOGlobal</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>IOGlobal!$A$2:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>lambda</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>hard17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>eastermonster</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>tarek_052</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>goldennugget</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>coloin</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>extra2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>extra3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>extra4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>inkara2012</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>clue18</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>clue17</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>sudowiki_nb28</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>sudowiki_nb49</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>BothIOGlobal!$F$2:$F$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>337</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-76BD-4059-9554-9C87C22A8CDA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>FFGlobal</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>BothFFGlobal!$F$2:$F$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-76BD-4059-9554-9C87C22A8CDA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>IO</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>BothIO!$F$2:$F$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>191</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-76BD-4059-9554-9C87C22A8CDA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>FF</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>BothFF!$F$2:$F$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>78</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-76BD-4059-9554-9C87C22A8CDA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="383566168"/>
+        <c:axId val="383564856"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="383566168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-BE"/>
+                  <a:t>Puzzle</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-BE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-BE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="383564856"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="383564856"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:max val="100000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-BE"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="nl-BE" baseline="0"/>
+                  <a:t> of backtracks</a:t>
+                </a:r>
+                <a:endParaRPr lang="nl-BE"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-BE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-BE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="383566168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5204,6 +6847,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -8222,20 +9945,1026 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
+      <xdr:colOff>495300</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:rowOff>157162</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8262,16 +10991,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
+      <xdr:colOff>209550</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:rowOff>157162</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8299,15 +11028,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8336,16 +11065,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8374,16 +11103,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>371474</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>128586</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>590549</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>157161</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>209549</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>133349</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8410,16 +11139,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>171449</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>600074</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8439,6 +11168,82 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Grafiek 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7CD2F2B-521A-4C5C-A166-38924A65C4F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Grafiek 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CBFEC9D-7CDA-47BA-A290-D00EA61F3FC7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8743,23 +11548,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DC6844D-8C98-4262-97D8-168A5B9624C1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBAEEF42-D542-4914-A00A-1C9BC28DBA2C}">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" customWidth="1"/>
-    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="4" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -8784,20 +11587,20 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16</v>
+        <v>234</v>
       </c>
       <c r="C2">
-        <v>15</v>
+        <v>234</v>
       </c>
       <c r="D2">
-        <v>15</v>
+        <v>235</v>
       </c>
       <c r="E2">
         <f>AVERAGE(B2:D2)</f>
-        <v>15.333333333333334</v>
+        <v>234.33333333333334</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>4712</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -8805,20 +11608,20 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="D3">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E15" si="0">AVERAGE(B3:D3)</f>
-        <v>14</v>
+        <v>46.666666666666664</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>873</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -8826,20 +11629,20 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>303</v>
+        <v>16</v>
       </c>
       <c r="C4">
-        <v>339</v>
+        <v>15</v>
       </c>
       <c r="D4">
-        <v>314</v>
+        <v>16</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>318.66666666666669</v>
+        <v>15.666666666666666</v>
       </c>
       <c r="F4">
-        <v>51</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -8847,20 +11650,20 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>515</v>
+        <v>16</v>
       </c>
       <c r="C5">
-        <v>482</v>
+        <v>15</v>
       </c>
       <c r="D5">
-        <v>521</v>
+        <v>16</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>506</v>
+        <v>15.666666666666666</v>
       </c>
       <c r="F5">
-        <v>59</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -8868,20 +11671,20 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>1055</v>
+        <v>47</v>
       </c>
       <c r="C6">
-        <v>998</v>
+        <v>31</v>
       </c>
       <c r="D6">
-        <v>994</v>
+        <v>31</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>1015.6666666666666</v>
+        <v>36.333333333333336</v>
       </c>
       <c r="F6">
-        <v>104</v>
+        <v>520</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -8889,20 +11692,20 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>328</v>
+        <v>109</v>
       </c>
       <c r="C7">
-        <v>334</v>
+        <v>125</v>
       </c>
       <c r="D7">
-        <v>330</v>
+        <v>125</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>330.66666666666669</v>
+        <v>119.66666666666667</v>
       </c>
       <c r="F7">
-        <v>88</v>
+        <v>2209</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -8910,20 +11713,20 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>11</v>
+        <v>125</v>
       </c>
       <c r="C8">
-        <v>13</v>
+        <v>125</v>
       </c>
       <c r="D8">
-        <v>11</v>
+        <v>125</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>11.666666666666666</v>
+        <v>125</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>4652</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -8931,20 +11734,20 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>17</v>
+        <v>234</v>
       </c>
       <c r="C9">
-        <v>16</v>
+        <v>219</v>
       </c>
       <c r="D9">
-        <v>18</v>
+        <v>234</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>229</v>
       </c>
       <c r="F9">
-        <v>3</v>
+        <v>4712</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -8952,20 +11755,20 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>20</v>
+        <v>672</v>
       </c>
       <c r="C10">
-        <v>18</v>
+        <v>671</v>
       </c>
       <c r="D10">
-        <v>18</v>
+        <v>672</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>18.666666666666668</v>
+        <v>671.66666666666663</v>
       </c>
       <c r="F10">
-        <v>4</v>
+        <v>15116</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -8973,20 +11776,20 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="D11">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="F11">
-        <v>3</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -8994,20 +11797,20 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>354</v>
+        <v>93</v>
       </c>
       <c r="C12">
-        <v>356</v>
+        <v>94</v>
       </c>
       <c r="D12">
-        <v>357</v>
+        <v>109</v>
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>355.66666666666669</v>
+        <v>98.666666666666671</v>
       </c>
       <c r="F12">
-        <v>69</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -9015,20 +11818,20 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>11</v>
+        <v>219</v>
       </c>
       <c r="C13">
-        <v>11</v>
+        <v>219</v>
       </c>
       <c r="D13">
-        <v>11</v>
+        <v>218</v>
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>218.66666666666666</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>5520</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -9036,20 +11839,20 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>1441</v>
+        <v>157</v>
       </c>
       <c r="C14">
-        <v>1448</v>
+        <v>156</v>
       </c>
       <c r="D14">
-        <v>1447</v>
+        <v>140</v>
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>1445.3333333333333</v>
+        <v>151</v>
       </c>
       <c r="F14">
-        <v>413</v>
+        <v>2851</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -9057,33 +11860,1028 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>270</v>
+        <v>79</v>
       </c>
       <c r="C15">
-        <v>261</v>
+        <v>78</v>
       </c>
       <c r="D15">
-        <v>266</v>
+        <v>78</v>
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>265.66666666666669</v>
+        <v>78.333333333333329</v>
       </c>
       <c r="F15">
-        <v>48</v>
+        <v>1078</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BEA4BF5-F3D9-4D89-866F-3FBF0AF73352}">
+  <dimension ref="A1:F15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="7" width="13.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>16</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <f>AVERAGE(B2:D2)</f>
+        <v>5.333333333333333</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>15</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>16</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E15" si="0">AVERAGE(B3:D3)</f>
+        <v>10.333333333333334</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>94</v>
+      </c>
+      <c r="C4">
+        <v>93</v>
+      </c>
+      <c r="D4">
+        <v>94</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>93.666666666666671</v>
+      </c>
+      <c r="F4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>110</v>
+      </c>
+      <c r="C5">
+        <v>125</v>
+      </c>
+      <c r="D5">
+        <v>109</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>114.66666666666667</v>
+      </c>
+      <c r="F5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>219</v>
+      </c>
+      <c r="C6">
+        <v>218</v>
+      </c>
+      <c r="D6">
+        <v>219</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>218.66666666666666</v>
+      </c>
+      <c r="F6">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>31</v>
+      </c>
+      <c r="C7">
+        <v>32</v>
+      </c>
+      <c r="D7">
+        <v>47</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>36.666666666666664</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>15</v>
+      </c>
+      <c r="C8">
+        <v>15</v>
+      </c>
+      <c r="D8">
+        <v>16</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>15.333333333333334</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>16</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>16</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>10.666666666666666</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>15</v>
+      </c>
+      <c r="C10">
+        <v>16</v>
+      </c>
+      <c r="D10">
+        <v>16</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>15.666666666666666</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>62</v>
+      </c>
+      <c r="C11">
+        <v>31</v>
+      </c>
+      <c r="D11">
+        <v>46</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>46.333333333333336</v>
+      </c>
+      <c r="F11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>16</v>
+      </c>
+      <c r="C12">
+        <v>16</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>10.666666666666666</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>16</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>5.333333333333333</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <v>390</v>
+      </c>
+      <c r="C14">
+        <v>391</v>
+      </c>
+      <c r="D14">
+        <v>390</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>390.33333333333331</v>
+      </c>
+      <c r="F14">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15">
+        <v>78</v>
+      </c>
+      <c r="C15">
+        <v>78</v>
+      </c>
+      <c r="D15">
+        <v>78</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>78</v>
+      </c>
+      <c r="F15">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E13A134E-3A61-4C46-9B86-E0982412F4CC}">
+  <dimension ref="A1:F15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="6" width="14.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>16</v>
+      </c>
+      <c r="D2">
+        <v>15</v>
+      </c>
+      <c r="E2">
+        <f>AVERAGE(B2:D2)</f>
+        <v>10.333333333333334</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>15</v>
+      </c>
+      <c r="C3">
+        <v>16</v>
+      </c>
+      <c r="D3">
+        <v>16</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E15" si="0">AVERAGE(B3:D3)</f>
+        <v>15.666666666666666</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>156</v>
+      </c>
+      <c r="C4">
+        <v>141</v>
+      </c>
+      <c r="D4">
+        <v>156</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>151</v>
+      </c>
+      <c r="F4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>203</v>
+      </c>
+      <c r="C5">
+        <v>188</v>
+      </c>
+      <c r="D5">
+        <v>187</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>192.66666666666666</v>
+      </c>
+      <c r="F5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>516</v>
+      </c>
+      <c r="C6">
+        <v>515</v>
+      </c>
+      <c r="D6">
+        <v>516</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>515.66666666666663</v>
+      </c>
+      <c r="F6">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>203</v>
+      </c>
+      <c r="C7">
+        <v>234</v>
+      </c>
+      <c r="D7">
+        <v>219</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>218.66666666666666</v>
+      </c>
+      <c r="F7">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>15</v>
+      </c>
+      <c r="D8">
+        <v>16</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>10.333333333333334</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>15</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>16</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>10.333333333333334</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>16</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>16</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>10.666666666666666</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>15</v>
+      </c>
+      <c r="C11">
+        <v>31</v>
+      </c>
+      <c r="D11">
+        <v>32</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>62</v>
+      </c>
+      <c r="C12">
+        <v>63</v>
+      </c>
+      <c r="D12">
+        <v>78</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>67.666666666666671</v>
+      </c>
+      <c r="F12">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>15</v>
+      </c>
+      <c r="D13">
+        <v>16</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>10.333333333333334</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <v>906</v>
+      </c>
+      <c r="C14">
+        <v>907</v>
+      </c>
+      <c r="D14">
+        <v>906</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>906.33333333333337</v>
+      </c>
+      <c r="F14">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15">
+        <v>110</v>
+      </c>
+      <c r="C15">
+        <v>109</v>
+      </c>
+      <c r="D15">
+        <v>110</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>109.66666666666667</v>
+      </c>
+      <c r="F15">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47B71A10-F9D4-4378-B835-A06DDA841F39}">
+  <dimension ref="A1:F15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="6" width="14.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>15</v>
+      </c>
+      <c r="C2">
+        <v>16</v>
+      </c>
+      <c r="D2">
+        <v>15</v>
+      </c>
+      <c r="E2">
+        <f>AVERAGE(B2:D2)</f>
+        <v>15.333333333333334</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E15" si="0">AVERAGE(B3:D3)</f>
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>32</v>
+      </c>
+      <c r="C4">
+        <v>31</v>
+      </c>
+      <c r="D4">
+        <v>31</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>31.333333333333332</v>
+      </c>
+      <c r="F4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>47</v>
+      </c>
+      <c r="C5">
+        <v>47</v>
+      </c>
+      <c r="D5">
+        <v>62</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="F5">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>94</v>
+      </c>
+      <c r="C6">
+        <v>94</v>
+      </c>
+      <c r="D6">
+        <v>93</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>93.666666666666671</v>
+      </c>
+      <c r="F6">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>47</v>
+      </c>
+      <c r="C7">
+        <v>63</v>
+      </c>
+      <c r="D7">
+        <v>62</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>57.333333333333336</v>
+      </c>
+      <c r="F7">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>16</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>5.333333333333333</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>15</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>16</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>5.333333333333333</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>78</v>
+      </c>
+      <c r="C12">
+        <v>78</v>
+      </c>
+      <c r="D12">
+        <v>94</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>83.333333333333329</v>
+      </c>
+      <c r="F12">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>15</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <v>188</v>
+      </c>
+      <c r="C14">
+        <v>187</v>
+      </c>
+      <c r="D14">
+        <v>188</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>187.66666666666666</v>
+      </c>
+      <c r="F14">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15">
+        <v>78</v>
+      </c>
+      <c r="C15">
+        <v>62</v>
+      </c>
+      <c r="D15">
+        <v>79</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>73</v>
+      </c>
+      <c r="F15">
+        <v>191</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE63E4D5-603C-4D1F-9F47-80261D74981C}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -9414,7 +13212,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CE5061E-E0EB-4480-8AA7-87B1B33F7153}">
   <dimension ref="A1:F15"/>
   <sheetViews>
@@ -9748,7 +13546,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F340964-0B41-4F49-B47D-332544577D33}">
   <dimension ref="A1:F15"/>
   <sheetViews>
@@ -10080,20 +13878,39 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{802995EE-F77C-453E-B7D8-A767D82682F8}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="H11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AA42" sqref="AA42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54C249F0-E2F1-4B41-BB48-4FECC9520224}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DC6844D-8C98-4262-97D8-168A5B9624C1}">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -10118,17 +13935,17 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E2">
         <f>AVERAGE(B2:D2)</f>
-        <v>16.333333333333332</v>
+        <v>15.333333333333334</v>
       </c>
       <c r="F2">
         <v>3</v>
@@ -10139,17 +13956,17 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C3">
+        <v>16</v>
+      </c>
+      <c r="D3">
         <v>15</v>
-      </c>
-      <c r="D3">
-        <v>14</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E15" si="0">AVERAGE(B3:D3)</f>
-        <v>14.333333333333334</v>
+        <v>15.666666666666666</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -10160,20 +13977,20 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="C4">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D4">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>164</v>
+        <v>161.66666666666666</v>
       </c>
       <c r="F4">
-        <v>33</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -10181,20 +13998,20 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>215</v>
+        <v>250</v>
       </c>
       <c r="C5">
-        <v>212</v>
+        <v>234</v>
       </c>
       <c r="D5">
-        <v>212</v>
+        <v>250</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>213</v>
+        <v>244.66666666666666</v>
       </c>
       <c r="F5">
-        <v>35</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -10202,20 +14019,20 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>397</v>
+        <v>484</v>
       </c>
       <c r="C6">
-        <v>441</v>
+        <v>485</v>
       </c>
       <c r="D6">
-        <v>410</v>
+        <v>484</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>416</v>
+        <v>484.33333333333331</v>
       </c>
       <c r="F6">
-        <v>76</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -10223,20 +14040,20 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>46</v>
+        <v>172</v>
       </c>
       <c r="C7">
-        <v>48</v>
+        <v>156</v>
       </c>
       <c r="D7">
-        <v>48</v>
+        <v>172</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>47.333333333333336</v>
+        <v>166.66666666666666</v>
       </c>
       <c r="F7">
-        <v>8</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -10244,17 +14061,17 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10271,11 +14088,11 @@
         <v>16</v>
       </c>
       <c r="D9">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>15.666666666666666</v>
       </c>
       <c r="F9">
         <v>3</v>
@@ -10286,20 +14103,20 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>17.333333333333332</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -10307,20 +14124,20 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="C11">
-        <v>110</v>
+        <v>15</v>
       </c>
       <c r="D11">
-        <v>104</v>
+        <v>16</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>105</v>
+        <v>15.666666666666666</v>
       </c>
       <c r="F11">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -10328,20 +14145,20 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>58</v>
+        <v>188</v>
       </c>
       <c r="C12">
-        <v>54</v>
+        <v>187</v>
       </c>
       <c r="D12">
-        <v>63</v>
+        <v>172</v>
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>58.333333333333336</v>
+        <v>182.33333333333334</v>
       </c>
       <c r="F12">
-        <v>8</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -10349,17 +14166,17 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C13">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -10370,20 +14187,20 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>724</v>
+        <v>750</v>
       </c>
       <c r="C14">
-        <v>749</v>
+        <v>734</v>
       </c>
       <c r="D14">
-        <v>737</v>
+        <v>750</v>
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>736.66666666666663</v>
+        <v>744.66666666666663</v>
       </c>
       <c r="F14">
-        <v>297</v>
+        <v>413</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -10391,367 +14208,34 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>273</v>
+        <v>141</v>
       </c>
       <c r="C15">
-        <v>273</v>
+        <v>140</v>
       </c>
       <c r="D15">
-        <v>273</v>
+        <v>141</v>
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>273</v>
+        <v>140.66666666666666</v>
       </c>
       <c r="F15">
-        <v>58</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBAEEF42-D542-4914-A00A-1C9BC28DBA2C}">
-  <dimension ref="A1:F15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="4" width="10.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>327</v>
-      </c>
-      <c r="C2">
-        <v>323</v>
-      </c>
-      <c r="D2">
-        <v>327</v>
-      </c>
-      <c r="E2">
-        <f>AVERAGE(B2:D2)</f>
-        <v>325.66666666666669</v>
-      </c>
-      <c r="F2">
-        <v>4712</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>66</v>
-      </c>
-      <c r="C3">
-        <v>66</v>
-      </c>
-      <c r="D3">
-        <v>70</v>
-      </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E15" si="0">AVERAGE(B3:D3)</f>
-        <v>67.333333333333329</v>
-      </c>
-      <c r="F3">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>15</v>
-      </c>
-      <c r="C4">
-        <v>17</v>
-      </c>
-      <c r="D4">
-        <v>16</v>
-      </c>
-      <c r="E4">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="F4">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>23</v>
-      </c>
-      <c r="C5">
-        <v>23</v>
-      </c>
-      <c r="D5">
-        <v>23</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="F5">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6">
-        <v>51</v>
-      </c>
-      <c r="C6">
-        <v>52</v>
-      </c>
-      <c r="D6">
-        <v>52</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="0"/>
-        <v>51.666666666666664</v>
-      </c>
-      <c r="F6">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7">
-        <v>170</v>
-      </c>
-      <c r="C7">
-        <v>164</v>
-      </c>
-      <c r="D7">
-        <v>182</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="0"/>
-        <v>172</v>
-      </c>
-      <c r="F7">
-        <v>2209</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8">
-        <v>175</v>
-      </c>
-      <c r="C8">
-        <v>195</v>
-      </c>
-      <c r="D8">
-        <v>184</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="0"/>
-        <v>184.66666666666666</v>
-      </c>
-      <c r="F8">
-        <v>4652</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9">
-        <v>318</v>
-      </c>
-      <c r="C9">
-        <v>343</v>
-      </c>
-      <c r="D9">
-        <v>318</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="0"/>
-        <v>326.33333333333331</v>
-      </c>
-      <c r="F9">
-        <v>4712</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10">
-        <v>951</v>
-      </c>
-      <c r="C10">
-        <v>937</v>
-      </c>
-      <c r="D10">
-        <v>1009</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="0"/>
-        <v>965.66666666666663</v>
-      </c>
-      <c r="F10">
-        <v>15116</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11">
-        <v>4</v>
-      </c>
-      <c r="C11">
-        <v>4</v>
-      </c>
-      <c r="D11">
-        <v>4</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="F11">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12">
-        <v>132</v>
-      </c>
-      <c r="C12">
-        <v>137</v>
-      </c>
-      <c r="D12">
-        <v>130</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="0"/>
-        <v>133</v>
-      </c>
-      <c r="F12">
-        <v>1838</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13">
-        <v>309</v>
-      </c>
-      <c r="C13">
-        <v>338</v>
-      </c>
-      <c r="D13">
-        <v>359</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="0"/>
-        <v>335.33333333333331</v>
-      </c>
-      <c r="F13">
-        <v>5520</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14">
-        <v>218</v>
-      </c>
-      <c r="C14">
-        <v>207</v>
-      </c>
-      <c r="D14">
-        <v>203</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="0"/>
-        <v>209.33333333333334</v>
-      </c>
-      <c r="F14">
-        <v>2851</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15">
-        <v>106</v>
-      </c>
-      <c r="C15">
-        <v>114</v>
-      </c>
-      <c r="D15">
-        <v>107</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="0"/>
-        <v>109</v>
-      </c>
-      <c r="F15">
-        <v>1078</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88C9DE2F-495D-40C5-96C0-855923331005}">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:F15"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10786,17 +14270,17 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="C2">
-        <v>90</v>
+        <v>47</v>
       </c>
       <c r="D2">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="E2">
         <f>AVERAGE(B2:D2)</f>
-        <v>86.666666666666671</v>
+        <v>57</v>
       </c>
       <c r="F2">
         <v>977</v>
@@ -10807,17 +14291,17 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C3">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D3">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E15" si="0">AVERAGE(B3:D3)</f>
-        <v>44</v>
+        <v>31.333333333333332</v>
       </c>
       <c r="F3">
         <v>419</v>
@@ -10828,17 +14312,17 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="F4">
         <v>101</v>
@@ -10849,17 +14333,17 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C5">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D5">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>15.666666666666666</v>
       </c>
       <c r="F5">
         <v>130</v>
@@ -10870,17 +14354,17 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="C6">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D6">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>47.666666666666664</v>
+        <v>31</v>
       </c>
       <c r="F6">
         <v>358</v>
@@ -10891,17 +14375,17 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C7">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D7">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>10.666666666666666</v>
       </c>
       <c r="F7">
         <v>83</v>
@@ -10912,17 +14396,17 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>564</v>
+        <v>359</v>
       </c>
       <c r="C8">
-        <v>608</v>
+        <v>359</v>
       </c>
       <c r="D8">
-        <v>532</v>
+        <v>344</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>568</v>
+        <v>354</v>
       </c>
       <c r="F8">
         <v>7690</v>
@@ -10933,17 +14417,17 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>90</v>
+        <v>47</v>
       </c>
       <c r="C9">
-        <v>96</v>
+        <v>47</v>
       </c>
       <c r="D9">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="F9">
         <v>977</v>
@@ -10954,17 +14438,17 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>178</v>
+        <v>125</v>
       </c>
       <c r="C10">
-        <v>168</v>
+        <v>109</v>
       </c>
       <c r="D10">
-        <v>190</v>
+        <v>125</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>178.66666666666666</v>
+        <v>119.66666666666667</v>
       </c>
       <c r="F10">
         <v>2097</v>
@@ -10975,17 +14459,17 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C11">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="D11">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>38.333333333333336</v>
+        <v>26.333333333333332</v>
       </c>
       <c r="F11">
         <v>273</v>
@@ -10996,17 +14480,17 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C12">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D12">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>48.333333333333336</v>
+        <v>31</v>
       </c>
       <c r="F12">
         <v>439</v>
@@ -11017,17 +14501,17 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C13">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D13">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>24.666666666666668</v>
+        <v>21</v>
       </c>
       <c r="F13">
         <v>270</v>
@@ -11038,17 +14522,17 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>234</v>
+        <v>156</v>
       </c>
       <c r="C14">
-        <v>223</v>
+        <v>141</v>
       </c>
       <c r="D14">
-        <v>217</v>
+        <v>156</v>
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>224.66666666666666</v>
+        <v>151</v>
       </c>
       <c r="F14">
         <v>2221</v>
@@ -11059,20 +14543,352 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="C15">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="D15">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>73.666666666666671</v>
+        <v>47</v>
       </c>
       <c r="F15">
         <v>655</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54C249F0-E2F1-4B41-BB48-4FECC9520224}">
+  <dimension ref="A1:F15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>16</v>
+      </c>
+      <c r="E2">
+        <f>AVERAGE(B2:D2)</f>
+        <v>5.333333333333333</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E15" si="0">AVERAGE(B3:D3)</f>
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>78</v>
+      </c>
+      <c r="C4">
+        <v>78</v>
+      </c>
+      <c r="D4">
+        <v>93</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>83</v>
+      </c>
+      <c r="F4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>110</v>
+      </c>
+      <c r="C5">
+        <v>110</v>
+      </c>
+      <c r="D5">
+        <v>109</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>109.66666666666667</v>
+      </c>
+      <c r="F5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>219</v>
+      </c>
+      <c r="C6">
+        <v>219</v>
+      </c>
+      <c r="D6">
+        <v>219</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>219</v>
+      </c>
+      <c r="F6">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>31</v>
+      </c>
+      <c r="C7">
+        <v>16</v>
+      </c>
+      <c r="D7">
+        <v>31</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="F7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>15</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>16</v>
+      </c>
+      <c r="C9">
+        <v>16</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>10.666666666666666</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>15</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>63</v>
+      </c>
+      <c r="C11">
+        <v>47</v>
+      </c>
+      <c r="D11">
+        <v>47</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>52.333333333333336</v>
+      </c>
+      <c r="F11">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>15</v>
+      </c>
+      <c r="C12">
+        <v>31</v>
+      </c>
+      <c r="D12">
+        <v>32</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="F12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>15</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <v>391</v>
+      </c>
+      <c r="C14">
+        <v>390</v>
+      </c>
+      <c r="D14">
+        <v>391</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>390.66666666666669</v>
+      </c>
+      <c r="F14">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15">
+        <v>140</v>
+      </c>
+      <c r="C15">
+        <v>125</v>
+      </c>
+      <c r="D15">
+        <v>140</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>135</v>
+      </c>
+      <c r="F15">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -11081,17 +14897,336 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{802995EE-F77C-453E-B7D8-A767D82682F8}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E95C35AC-0340-480A-B4B1-FD4CF1CC9A8B}">
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="2" max="5" width="11.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>15</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>16</v>
+      </c>
+      <c r="E2">
+        <f>AVERAGE(B2:D2)</f>
+        <v>10.333333333333334</v>
+      </c>
+      <c r="F2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E15" si="0">AVERAGE(B3:D3)</f>
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>16</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>5.333333333333333</v>
+      </c>
+      <c r="F4">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>16</v>
+      </c>
+      <c r="D5">
+        <v>15</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>10.333333333333334</v>
+      </c>
+      <c r="F5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>125</v>
+      </c>
+      <c r="C6">
+        <v>125</v>
+      </c>
+      <c r="D6">
+        <v>125</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>125</v>
+      </c>
+      <c r="F6">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>110</v>
+      </c>
+      <c r="C7">
+        <v>125</v>
+      </c>
+      <c r="D7">
+        <v>125</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="F7">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>94</v>
+      </c>
+      <c r="C8">
+        <v>94</v>
+      </c>
+      <c r="D8">
+        <v>94</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>94</v>
+      </c>
+      <c r="F8">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>15</v>
+      </c>
+      <c r="D9">
+        <v>16</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>10.333333333333334</v>
+      </c>
+      <c r="F9">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>16</v>
+      </c>
+      <c r="D10">
+        <v>15</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>10.333333333333334</v>
+      </c>
+      <c r="F10">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>31</v>
+      </c>
+      <c r="C11">
+        <v>47</v>
+      </c>
+      <c r="D11">
+        <v>31</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>36.333333333333336</v>
+      </c>
+      <c r="F11">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>126</v>
+      </c>
+      <c r="C12">
+        <v>109</v>
+      </c>
+      <c r="D12">
+        <v>109</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>114.66666666666667</v>
+      </c>
+      <c r="F12">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>16</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>5.333333333333333</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <v>312</v>
+      </c>
+      <c r="C14">
+        <v>329</v>
+      </c>
+      <c r="D14">
+        <v>328</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>323</v>
+      </c>
+      <c r="F14">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15">
+        <v>125</v>
+      </c>
+      <c r="C15">
+        <v>125</v>
+      </c>
+      <c r="D15">
+        <v>125</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>125</v>
+      </c>
+      <c r="F15">
+        <v>878</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -11100,7 +15235,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11135,17 +15270,17 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <f>AVERAGE(B2:D2)</f>
-        <v>13.333333333333334</v>
+        <v>5</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -11156,17 +15291,17 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E15" si="0">AVERAGE(B3:D3)</f>
-        <v>15</v>
+        <v>15.666666666666666</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -11177,17 +15312,17 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>93</v>
+        <v>47</v>
       </c>
       <c r="C4">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="D4">
-        <v>93</v>
+        <v>47</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>96.666666666666671</v>
+        <v>47</v>
       </c>
       <c r="F4">
         <v>18</v>
@@ -11198,17 +15333,17 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D5">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11219,17 +15354,17 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>920</v>
+        <v>500</v>
       </c>
       <c r="C6">
-        <v>897</v>
+        <v>500</v>
       </c>
       <c r="D6">
-        <v>882</v>
+        <v>500</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>899.66666666666663</v>
+        <v>500</v>
       </c>
       <c r="F6">
         <v>199</v>
@@ -11240,17 +15375,17 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>978</v>
+        <v>532</v>
       </c>
       <c r="C7">
-        <v>985</v>
+        <v>531</v>
       </c>
       <c r="D7">
-        <v>1024</v>
+        <v>531</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>995.66666666666663</v>
+        <v>531.33333333333337</v>
       </c>
       <c r="F7">
         <v>233</v>
@@ -11261,17 +15396,17 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>216</v>
+        <v>109</v>
       </c>
       <c r="C8">
-        <v>218</v>
+        <v>125</v>
       </c>
       <c r="D8">
-        <v>232</v>
+        <v>125</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>222</v>
+        <v>119.66666666666667</v>
       </c>
       <c r="F8">
         <v>22</v>
@@ -11282,17 +15417,17 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C9">
+        <v>16</v>
+      </c>
+      <c r="D9">
         <v>15</v>
       </c>
-      <c r="D9">
-        <v>13</v>
-      </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>15.666666666666666</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -11303,17 +15438,17 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C10">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>12.333333333333334</v>
+        <v>10.666666666666666</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -11324,17 +15459,17 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>248</v>
+        <v>140</v>
       </c>
       <c r="C11">
-        <v>256</v>
+        <v>125</v>
       </c>
       <c r="D11">
-        <v>250</v>
+        <v>125</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>251.33333333333334</v>
+        <v>130</v>
       </c>
       <c r="F11">
         <v>56</v>
@@ -11345,17 +15480,17 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>174</v>
+        <v>94</v>
       </c>
       <c r="C12">
-        <v>170</v>
+        <v>94</v>
       </c>
       <c r="D12">
-        <v>170</v>
+        <v>93</v>
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>171.33333333333334</v>
+        <v>93.666666666666671</v>
       </c>
       <c r="F12">
         <v>29</v>
@@ -11366,17 +15501,17 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C13">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D13">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>12.333333333333334</v>
+        <v>15.666666666666666</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -11387,17 +15522,17 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>2577</v>
+        <v>1391</v>
       </c>
       <c r="C14">
-        <v>2559</v>
+        <v>1406</v>
       </c>
       <c r="D14">
-        <v>2567</v>
+        <v>1375</v>
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>2567.6666666666665</v>
+        <v>1390.6666666666667</v>
       </c>
       <c r="F14">
         <v>870</v>
@@ -11408,17 +15543,17 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>687</v>
+        <v>359</v>
       </c>
       <c r="C15">
-        <v>660</v>
+        <v>360</v>
       </c>
       <c r="D15">
-        <v>699</v>
+        <v>360</v>
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>682</v>
+        <v>359.66666666666669</v>
       </c>
       <c r="F15">
         <v>147</v>
@@ -11430,11 +15565,344 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6C99614-663B-4D8E-B833-F4253C75659C}">
+  <dimension ref="A1:F15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="2" max="6" width="13.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>16</v>
+      </c>
+      <c r="E2">
+        <f>AVERAGE(B2:D2)</f>
+        <v>5.333333333333333</v>
+      </c>
+      <c r="F2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E15" si="0">AVERAGE(B3:D3)</f>
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>31</v>
+      </c>
+      <c r="C4">
+        <v>16</v>
+      </c>
+      <c r="D4">
+        <v>31</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="F4">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>15</v>
+      </c>
+      <c r="C5">
+        <v>16</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>10.333333333333334</v>
+      </c>
+      <c r="F5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>16</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>16</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>10.666666666666666</v>
+      </c>
+      <c r="F6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>94</v>
+      </c>
+      <c r="C7">
+        <v>94</v>
+      </c>
+      <c r="D7">
+        <v>94</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>94</v>
+      </c>
+      <c r="F7">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>16</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>5.333333333333333</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>15</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>16</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>5.333333333333333</v>
+      </c>
+      <c r="F10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>16</v>
+      </c>
+      <c r="D11">
+        <v>15</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>10.333333333333334</v>
+      </c>
+      <c r="F11">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>47</v>
+      </c>
+      <c r="C12">
+        <v>31</v>
+      </c>
+      <c r="D12">
+        <v>32</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>36.666666666666664</v>
+      </c>
+      <c r="F12">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <v>47</v>
+      </c>
+      <c r="C14">
+        <v>46</v>
+      </c>
+      <c r="D14">
+        <v>47</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>46.666666666666664</v>
+      </c>
+      <c r="F14">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15">
+        <v>78</v>
+      </c>
+      <c r="C15">
+        <v>79</v>
+      </c>
+      <c r="D15">
+        <v>78</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>78.333333333333329</v>
+      </c>
+      <c r="F15">
+        <v>519</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F58ED4D7-03AD-4F2F-BFA3-44B1C5F799FF}">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="F15" sqref="A1:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11469,17 +15937,17 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <f>AVERAGE(B2:D2)</f>
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -11490,17 +15958,17 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E15" si="0">AVERAGE(B3:D3)</f>
-        <v>14.333333333333334</v>
+        <v>10.333333333333334</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -11511,17 +15979,17 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>285</v>
+        <v>156</v>
       </c>
       <c r="C4">
-        <v>288</v>
+        <v>156</v>
       </c>
       <c r="D4">
-        <v>273</v>
+        <v>157</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>282</v>
+        <v>156.33333333333334</v>
       </c>
       <c r="F4">
         <v>61</v>
@@ -11532,17 +16000,17 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="C5">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="D5">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="F5">
         <v>12</v>
@@ -11553,17 +16021,17 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C6">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="D6">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>36.333333333333336</v>
+        <v>21</v>
       </c>
       <c r="F6">
         <v>8</v>
@@ -11574,17 +16042,17 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>730</v>
+        <v>390</v>
       </c>
       <c r="C7">
-        <v>700</v>
+        <v>390</v>
       </c>
       <c r="D7">
-        <v>713</v>
+        <v>391</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>714.33333333333337</v>
+        <v>390.33333333333331</v>
       </c>
       <c r="F7">
         <v>201</v>
@@ -11595,17 +16063,17 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C8">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>24.666666666666668</v>
+        <v>10.333333333333334</v>
       </c>
       <c r="F8">
         <v>3</v>
@@ -11616,17 +16084,17 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <v>15</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>13.666666666666666</v>
+        <v>5</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -11637,17 +16105,17 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D10">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -11658,17 +16126,17 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="C11">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="D11">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>66</v>
+        <v>36.333333333333336</v>
       </c>
       <c r="F11">
         <v>15</v>
@@ -11679,17 +16147,17 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C12">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D12">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>19.333333333333332</v>
+        <v>15.666666666666666</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -11700,17 +16168,17 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C13">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>12.333333333333334</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -11721,17 +16189,17 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>447</v>
+        <v>250</v>
       </c>
       <c r="C14">
-        <v>459</v>
+        <v>265</v>
       </c>
       <c r="D14">
-        <v>461</v>
+        <v>250</v>
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>455.66666666666669</v>
+        <v>255</v>
       </c>
       <c r="F14">
         <v>203</v>
@@ -11742,354 +16210,20 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>564</v>
+        <v>297</v>
       </c>
       <c r="C15">
-        <v>556</v>
+        <v>313</v>
       </c>
       <c r="D15">
-        <v>557</v>
+        <v>312</v>
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>559</v>
+        <v>307.33333333333331</v>
       </c>
       <c r="F15">
         <v>177</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E95C35AC-0340-480A-B4B1-FD4CF1CC9A8B}">
-  <dimension ref="A1:F15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.28515625" customWidth="1"/>
-    <col min="2" max="5" width="11.28515625" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>20</v>
-      </c>
-      <c r="C2">
-        <v>20</v>
-      </c>
-      <c r="D2">
-        <v>20</v>
-      </c>
-      <c r="E2">
-        <f>AVERAGE(B2:D2)</f>
-        <v>20</v>
-      </c>
-      <c r="F2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>5</v>
-      </c>
-      <c r="D3">
-        <v>4</v>
-      </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E15" si="0">AVERAGE(B3:D3)</f>
-        <v>4.333333333333333</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>11</v>
-      </c>
-      <c r="C4">
-        <v>11</v>
-      </c>
-      <c r="D4">
-        <v>11</v>
-      </c>
-      <c r="E4">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="F4">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>7</v>
-      </c>
-      <c r="C5">
-        <v>7</v>
-      </c>
-      <c r="D5">
-        <v>7</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="F5">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6">
-        <v>184</v>
-      </c>
-      <c r="C6">
-        <v>190</v>
-      </c>
-      <c r="D6">
-        <v>187</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="0"/>
-        <v>187</v>
-      </c>
-      <c r="F6">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7">
-        <v>166</v>
-      </c>
-      <c r="C7">
-        <v>167</v>
-      </c>
-      <c r="D7">
-        <v>175</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="0"/>
-        <v>169.33333333333334</v>
-      </c>
-      <c r="F7">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8">
-        <v>143</v>
-      </c>
-      <c r="C8">
-        <v>141</v>
-      </c>
-      <c r="D8">
-        <v>138</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="0"/>
-        <v>140.66666666666666</v>
-      </c>
-      <c r="F8">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9">
-        <v>19</v>
-      </c>
-      <c r="C9">
-        <v>23</v>
-      </c>
-      <c r="D9">
-        <v>23</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="0"/>
-        <v>21.666666666666668</v>
-      </c>
-      <c r="F9">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10">
-        <v>28</v>
-      </c>
-      <c r="C10">
-        <v>30</v>
-      </c>
-      <c r="D10">
-        <v>26</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="F10">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11">
-        <v>63</v>
-      </c>
-      <c r="C11">
-        <v>60</v>
-      </c>
-      <c r="D11">
-        <v>56</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="0"/>
-        <v>59.666666666666664</v>
-      </c>
-      <c r="F11">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12">
-        <v>165</v>
-      </c>
-      <c r="C12">
-        <v>157</v>
-      </c>
-      <c r="D12">
-        <v>160</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="0"/>
-        <v>160.66666666666666</v>
-      </c>
-      <c r="F12">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13">
-        <v>3</v>
-      </c>
-      <c r="C13">
-        <v>3</v>
-      </c>
-      <c r="D13">
-        <v>3</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14">
-        <v>480</v>
-      </c>
-      <c r="C14">
-        <v>500</v>
-      </c>
-      <c r="D14">
-        <v>484</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="0"/>
-        <v>488</v>
-      </c>
-      <c r="F14">
-        <v>2038</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15">
-        <v>204</v>
-      </c>
-      <c r="C15">
-        <v>185</v>
-      </c>
-      <c r="D15">
-        <v>186</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="0"/>
-        <v>191.66666666666666</v>
-      </c>
-      <c r="F15">
-        <v>878</v>
       </c>
     </row>
   </sheetData>
@@ -12098,17 +16232,16 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6C99614-663B-4D8E-B833-F4253C75659C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24B67899-670D-4169-90D6-6DFD24CA3C6C}">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F15"/>
+      <selection activeCell="F15" sqref="A1:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1"/>
-    <col min="2" max="6" width="13.140625" customWidth="1"/>
+    <col min="1" max="6" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -12136,20 +16269,20 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D2">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E2">
         <f>AVERAGE(B2:D2)</f>
-        <v>7</v>
+        <v>10.333333333333334</v>
       </c>
       <c r="F2">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -12157,17 +16290,17 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E15" si="0">AVERAGE(B3:D3)</f>
-        <v>4</v>
+        <v>10.333333333333334</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -12178,20 +16311,20 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="C4">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="D4">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>15.666666666666666</v>
       </c>
       <c r="F4">
-        <v>131</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -12199,20 +16332,20 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="C5">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D5">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>31.333333333333332</v>
       </c>
       <c r="F5">
-        <v>35</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -12220,20 +16353,20 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="C6">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="D6">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="F6">
-        <v>17</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -12241,20 +16374,20 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>148</v>
+        <v>15</v>
       </c>
       <c r="C7">
-        <v>144</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>142.33333333333334</v>
+        <v>5</v>
       </c>
       <c r="F7">
-        <v>562</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -12262,20 +16395,20 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D8">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>15.666666666666666</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -12283,20 +16416,20 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -12304,20 +16437,20 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D10">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="F10">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -12325,20 +16458,20 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="C11">
         <v>15</v>
       </c>
       <c r="D11">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>15.666666666666666</v>
+        <v>20.666666666666668</v>
       </c>
       <c r="F11">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -12346,20 +16479,20 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="C12">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="D12">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>15.666666666666666</v>
       </c>
       <c r="F12">
-        <v>225</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -12367,17 +16500,17 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="C13">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D13">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>10.333333333333334</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -12388,20 +16521,20 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C14">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="D14">
         <v>78</v>
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>74.333333333333329</v>
+        <v>83.333333333333329</v>
       </c>
       <c r="F14">
-        <v>263</v>
+        <v>210</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -12409,20 +16542,20 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>123</v>
+        <v>47</v>
       </c>
       <c r="C15">
-        <v>113</v>
+        <v>31</v>
       </c>
       <c r="D15">
-        <v>109</v>
+        <v>32</v>
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>115</v>
+        <v>36.666666666666664</v>
       </c>
       <c r="F15">
-        <v>519</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
